--- a/biology/Médecine/Luliconazole/Luliconazole.xlsx
+++ b/biology/Médecine/Luliconazole/Luliconazole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le luliconazole, est un antifongique vendu entre autres sous la marque Luzu[1].
+Le luliconazole, est un antifongique vendu entre autres sous la marque Luzu.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le luliconazole fait partie de la famille des imidazoles[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le luliconazole fait partie de la famille des imidazoles.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un médicament utilisé pour traiter le pied d'athlète, l'eczéma et la teigne[1]. Il est appliqué sur la zone touchée[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un médicament utilisé pour traiter le pied d'athlète, l'eczéma et la teigne. Il est appliqué sur la zone touchée.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires courants comprennent des démangeaisons et des douleurs. D'autres effets secondaires peuvent inclure une dermatite de contact[2]. La sécurité pendant la grossesse et l'allaitement n'est pas claire[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires courants comprennent des démangeaisons et des douleurs. D'autres effets secondaires peuvent inclure une dermatite de contact. La sécurité pendant la grossesse et l'allaitement n'est pas claire.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le luliconazole a été approuvé pour un usage médical aux États-Unis en 2013[1]. Aux États-Unis, il coûte environ 490 dollar américain pour un tube de crème de 60 grammes à partir de 2021[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le luliconazole a été approuvé pour un usage médical aux États-Unis en 2013. Aux États-Unis, il coûte environ 490 dollar américain pour un tube de crème de 60 grammes à partir de 2021.
 </t>
         </is>
       </c>
